--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -24,9 +24,6 @@
     <t>● El proyecto deberá poseer al menos una aplicación de Django</t>
   </si>
   <si>
-    <t>● Deben existir al menos 3 rutas distintas.</t>
-  </si>
-  <si>
     <t>● Debe existir al menos una vista parametrizada.</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>● El proyecto debe poseer al menos una página a la que solo se pueda acceder mediante autenticación y la misma debe ser validada tanto en el front-end como el back-end.</t>
+  </si>
+  <si>
+    <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal)</t>
   </si>
 </sst>
 </file>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,12 +123,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -429,7 +438,7 @@
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +450,7 @@
   <sheetData>
     <row r="2" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -458,106 +467,101 @@
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="1"/>
     </row>
     <row r="21" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="23" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1"/>
     </row>
     <row r="25" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
@@ -565,6 +569,11 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -76,16 +76,29 @@
   </si>
   <si>
     <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal)</t>
+  </si>
+  <si>
+    <t>COMPLEJO</t>
+  </si>
+  <si>
+    <t>PERFIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -123,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -132,6 +145,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C25"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,134 +464,141 @@
     <col min="3" max="3" width="91.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="21" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="22" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="23" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="24" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="25" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="26" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>PERFIL</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -136,8 +139,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -147,9 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +458,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,40 +469,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -521,10 +525,10 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -532,55 +536,58 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="D17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="22" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="24" spans="2:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="26" spans="2:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -141,6 +141,7 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -153,7 +154,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +458,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,40 +469,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -525,10 +525,10 @@
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -536,58 +536,58 @@
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -75,9 +75,6 @@
     <t>● El proyecto debe poseer al menos una página a la que solo se pueda acceder mediante autenticación y la misma debe ser validada tanto en el front-end como el back-end.</t>
   </si>
   <si>
-    <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal)</t>
-  </si>
-  <si>
     <t>COMPLEJO</t>
   </si>
   <si>
@@ -85,6 +82,24 @@
   </si>
   <si>
     <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>en el principal, esta el navbar , y luego se extiende en el index</t>
+  </si>
+  <si>
+    <t>al listar complejos, tiene un filtro para que los nombres se vean en mayus</t>
+  </si>
+  <si>
+    <t>Perfil y Complejo?chequear</t>
+  </si>
+  <si>
+    <t>el index de principal ? Chequear</t>
+  </si>
+  <si>
+    <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal/crear complejos/listar complejos?)</t>
+  </si>
+  <si>
+    <t>chequear</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -151,9 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,7 +487,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,10 +516,13 @@
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5"/>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -510,18 +542,27 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>6</v>
       </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="C11" s="7" t="s">
         <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -540,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -548,7 +589,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -556,14 +597,17 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>chequear</t>
+  </si>
+  <si>
+    <t>chequear . Acceder se puede</t>
   </si>
 </sst>
 </file>
@@ -166,9 +169,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -178,11 +183,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,43 +504,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -542,34 +548,34 @@
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
@@ -601,37 +607,40 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>chequear . Acceder se puede</t>
+  </si>
+  <si>
+    <t>1 a muchos: cliente - reserva (un cliente puede tener muchas reservas)</t>
+  </si>
+  <si>
+    <t>principal y perfil?</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -187,6 +193,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -492,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,10 +525,13 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
@@ -615,11 +627,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="5"/>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>principal y perfil?</t>
+  </si>
+  <si>
+    <t>las cabañas se puede entrar por id</t>
   </si>
 </sst>
 </file>
@@ -189,13 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -525,28 +528,31 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -619,10 +625,10 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3" t="s">
         <v>24</v>
       </c>
@@ -643,10 +649,10 @@
       <c r="C22" s="6"/>
     </row>
     <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
       <c r="D24" t="s">
         <v>28</v>
       </c>

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -505,7 +505,7 @@
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -99,19 +99,19 @@
     <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal/crear complejos/listar complejos?)</t>
   </si>
   <si>
-    <t>chequear</t>
-  </si>
-  <si>
     <t>chequear . Acceder se puede</t>
   </si>
   <si>
     <t>1 a muchos: cliente - reserva (un cliente puede tener muchas reservas)</t>
   </si>
   <si>
-    <t>principal y perfil?</t>
-  </si>
-  <si>
     <t>las cabañas se puede entrar por id</t>
+  </si>
+  <si>
+    <t>principal y perfil</t>
+  </si>
+  <si>
+    <t>Referencia en el proyecto</t>
   </si>
 </sst>
 </file>
@@ -134,7 +134,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,11 +172,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -195,12 +186,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,166 +495,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-    </row>
     <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/cabaniapp/Requisitos pig.xlsx
+++ b/cabaniapp/Requisitos pig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>● El PIG debe subirse a un repositorio GIT público en la nube.</t>
   </si>
@@ -78,47 +78,76 @@
     <t>COMPLEJO</t>
   </si>
   <si>
-    <t>PERFIL</t>
-  </si>
-  <si>
-    <t>CLIENTE</t>
-  </si>
-  <si>
-    <t>en el principal, esta el navbar , y luego se extiende en el index</t>
-  </si>
-  <si>
     <t>al listar complejos, tiene un filtro para que los nombres se vean en mayus</t>
   </si>
   <si>
-    <t>Perfil y Complejo?chequear</t>
-  </si>
-  <si>
-    <t>el index de principal ? Chequear</t>
-  </si>
-  <si>
     <t>● Deben existir al menos 3 rutas distintas. (perfil/ principal/crear complejos/listar complejos?)</t>
   </si>
   <si>
-    <t>chequear . Acceder se puede</t>
-  </si>
-  <si>
-    <t>1 a muchos: cliente - reserva (un cliente puede tener muchas reservas)</t>
-  </si>
-  <si>
-    <t>las cabañas se puede entrar por id</t>
-  </si>
-  <si>
     <t>principal y perfil</t>
   </si>
   <si>
     <t>Referencia en el proyecto</t>
+  </si>
+  <si>
+    <t>perfiles
+complejos
+cabañas
+clientes 
+reservas</t>
+  </si>
+  <si>
+    <t>- las cabañas se puede entrar por id
+- el formulario de perfil toma según la ruta para el titulo del form</t>
+  </si>
+  <si>
+    <t>el index de principal tiene css js estaticos
+iconos de menu principal</t>
+  </si>
+  <si>
+    <t>en el principal, esta el navbar , y luego se extiende en el index
+base y principal</t>
+  </si>
+  <si>
+    <t>cabañas asociadas a vista</t>
+  </si>
+  <si>
+    <t>crear perfil</t>
+  </si>
+  <si>
+    <t>Perfil Cliente , cabaña</t>
+  </si>
+  <si>
+    <t>Perfil</t>
+  </si>
+  <si>
+    <t>1 a muchos: cliente - reserva (un cliente puede tener muchas reservas)
+muchos a muchos: servicios-cabañas:
+- 1 cabaña muchos servicios
+- 1 servicio muchas cabañas</t>
+  </si>
+  <si>
+    <t>sofi</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>Persona 
+Complejo
+Cabaña
+Servicio
+Reserva</t>
+  </si>
+  <si>
+    <t>se puede ok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +162,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,13 +184,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,28 +201,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,168 +539,184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="91.5703125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4" s="8" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6"/>
+    </row>
+    <row r="14" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="2:5" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" s="4" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3"/>
     </row>
-    <row r="24" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="2:5" s="11" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
